--- a/project/public/WorkingTimeList_all_2026_02_01.xlsx
+++ b/project/public/WorkingTimeList_all_2026_02_01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>氏名</t>
   </si>
@@ -48,136 +48,112 @@
     <t>備考</t>
   </si>
   <si>
-    <t>2026-01-04</t>
-  </si>
-  <si>
-    <t>2026-01-04 14:11:44</t>
-  </si>
-  <si>
-    <t>2026-01-04 19:34:05</t>
-  </si>
-  <si>
-    <t>2026-01-06</t>
-  </si>
-  <si>
-    <t>2026-01-06 17:08:35</t>
-  </si>
-  <si>
-    <t>2026-01-06 19:15:33</t>
-  </si>
-  <si>
-    <t>2026-01-08</t>
-  </si>
-  <si>
-    <t>2026-01-08 09:26:52</t>
-  </si>
-  <si>
-    <t>2026-01-08 18:31:02</t>
-  </si>
-  <si>
-    <t>2026-01-11</t>
-  </si>
-  <si>
-    <t>2026-01-11 08:25:41</t>
-  </si>
-  <si>
-    <t>2026-01-11 12:35:06</t>
-  </si>
-  <si>
-    <t>2026-01-12</t>
-  </si>
-  <si>
-    <t>2026-01-12 08:50:55</t>
-  </si>
-  <si>
-    <t>2026-01-12 13:01:15</t>
-  </si>
-  <si>
-    <t>2026-01-13</t>
-  </si>
-  <si>
-    <t>2026-01-13 08:22:28</t>
-  </si>
-  <si>
-    <t>2026-01-13 17:30:29</t>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-  </si>
-  <si>
-    <t>2026-01-14 10:54:32</t>
-  </si>
-  <si>
-    <t>2026-01-14 20:07:09</t>
-  </si>
-  <si>
-    <t>2026-01-15</t>
-  </si>
-  <si>
-    <t>2026-01-15 09:54:28</t>
-  </si>
-  <si>
-    <t>2026-01-15 19:34:35</t>
-  </si>
-  <si>
-    <t>2026-01-16</t>
-  </si>
-  <si>
-    <t>2026-01-16 10:04:04</t>
-  </si>
-  <si>
-    <t>2026-01-16 19:12:02</t>
-  </si>
-  <si>
-    <t>2026-01-18</t>
-  </si>
-  <si>
-    <t>2026-01-18 08:53:45</t>
-  </si>
-  <si>
-    <t>2026-01-18 13:04:03</t>
-  </si>
-  <si>
-    <t>2026-01-19</t>
-  </si>
-  <si>
-    <t>2026-01-19 10:43:29</t>
-  </si>
-  <si>
-    <t>2026-01-19 20:18:03</t>
-  </si>
-  <si>
-    <t>2026-01-20</t>
-  </si>
-  <si>
-    <t>2026-01-20 10:58:34</t>
-  </si>
-  <si>
-    <t>2026-01-20 19:01:04</t>
-  </si>
-  <si>
-    <t>2026-01-21</t>
-  </si>
-  <si>
-    <t>2026-01-21 10:06:18</t>
-  </si>
-  <si>
-    <t>2026-01-21 19:17:40</t>
-  </si>
-  <si>
-    <t>2026-01-24</t>
-  </si>
-  <si>
-    <t>2026-01-24 14:22:05</t>
-  </si>
-  <si>
-    <t>2026-01-24 18:06:15</t>
-  </si>
-  <si>
-    <t>2026-01-25</t>
-  </si>
-  <si>
-    <t>2026-01-25 09:59:02</t>
+    <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2025-11-09 12:56:52</t>
+  </si>
+  <si>
+    <t>2025-11-09 19:00:34</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-10 12:55:15</t>
+  </si>
+  <si>
+    <t>2025-11-10 20:00:47</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-12 12:51:59</t>
+  </si>
+  <si>
+    <t>2025-11-12 18:35:31</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-13 11:52:11</t>
+  </si>
+  <si>
+    <t>2025-11-13 18:01:06</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-14 12:56:09</t>
+  </si>
+  <si>
+    <t>2025-11-14 20:30:39</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-17 11:55:12</t>
+  </si>
+  <si>
+    <t>2025-11-17 18:13:11</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-19 12:46:40</t>
+  </si>
+  <si>
+    <t>2025-11-19 19:30:21</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-20 11:56:17</t>
+  </si>
+  <si>
+    <t>2025-11-20 19:16:06</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-23 10:27:32</t>
+  </si>
+  <si>
+    <t>2025-11-23 12:45:13</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-25 10:55:36</t>
+  </si>
+  <si>
+    <t>2025-11-25 16:31:50</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-28 10:56:21</t>
+  </si>
+  <si>
+    <t>2025-11-28 18:32:03</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-11-30 11:58:54</t>
+  </si>
+  <si>
+    <t>2025-11-30 19:05:06</t>
   </si>
   <si>
     <t>関口 朱乃</t>
@@ -186,106 +162,127 @@
     <t>SF_005</t>
   </si>
   <si>
-    <t>2026-01-05</t>
-  </si>
-  <si>
-    <t>2026-01-05 09:24:52</t>
-  </si>
-  <si>
-    <t>2026-01-05 19:06:41</t>
-  </si>
-  <si>
-    <t>2026-01-06 08:39:11</t>
-  </si>
-  <si>
-    <t>2026-01-06 17:39:40</t>
-  </si>
-  <si>
-    <t>2026-01-07</t>
-  </si>
-  <si>
-    <t>2026-01-07 08:49:24</t>
-  </si>
-  <si>
-    <t>2026-01-07 17:35:02</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>2026-01-09 08:46:30</t>
-  </si>
-  <si>
-    <t>2026-01-09 17:33:00</t>
-  </si>
-  <si>
-    <t>2026-01-10</t>
-  </si>
-  <si>
-    <t>2026-01-10 08:26:11</t>
-  </si>
-  <si>
-    <t>2026-01-10 17:57:14</t>
-  </si>
-  <si>
-    <t>2026-01-13 08:30:34</t>
-  </si>
-  <si>
-    <t>2026-01-13 17:30:15</t>
-  </si>
-  <si>
-    <t>2026-01-14 08:55:57</t>
-  </si>
-  <si>
-    <t>2026-01-14 17:31:07</t>
-  </si>
-  <si>
-    <t>2026-01-15 08:57:43</t>
-  </si>
-  <si>
-    <t>2026-01-15 17:31:05</t>
-  </si>
-  <si>
-    <t>2026-01-16 08:50:23</t>
-  </si>
-  <si>
-    <t>2026-01-16 17:08:30</t>
-  </si>
-  <si>
-    <t>2026-01-17</t>
-  </si>
-  <si>
-    <t>2026-01-17 08:13:43</t>
-  </si>
-  <si>
-    <t>2026-01-17 17:32:20</t>
-  </si>
-  <si>
-    <t>2026-01-20 08:50:31</t>
-  </si>
-  <si>
-    <t>2026-01-20 18:21:13</t>
-  </si>
-  <si>
-    <t>2026-01-21 10:06:27</t>
-  </si>
-  <si>
-    <t>2026-01-21 18:41:43</t>
-  </si>
-  <si>
-    <t>2026-01-22</t>
-  </si>
-  <si>
-    <t>2026-01-22 08:44:38</t>
-  </si>
-  <si>
-    <t>2026-01-22 17:15:05</t>
-  </si>
-  <si>
-    <t>2026-01-24 09:18:22</t>
-  </si>
-  <si>
-    <t>2026-01-24 18:10:16</t>
+    <t>2025-11-01</t>
+  </si>
+  <si>
+    <t>2025-11-01 10:39:09</t>
+  </si>
+  <si>
+    <t>2025-11-01 17:03:03</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-05 10:50:12</t>
+  </si>
+  <si>
+    <t>2025-11-05 17:07:21</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-08 10:44:42</t>
+  </si>
+  <si>
+    <t>2025-11-08 17:13:22</t>
+  </si>
+  <si>
+    <t>2025-11-10 10:49:29</t>
+  </si>
+  <si>
+    <t>2025-11-10 17:07:25</t>
+  </si>
+  <si>
+    <t>2025-11-13 10:42:01</t>
+  </si>
+  <si>
+    <t>2025-11-13 17:33:17</t>
+  </si>
+  <si>
+    <t>2025-11-14 10:54:54</t>
+  </si>
+  <si>
+    <t>2025-11-14 17:02:08</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-16 10:43:30</t>
+  </si>
+  <si>
+    <t>2025-11-16 18:42:23</t>
+  </si>
+  <si>
+    <t>2025-11-17 10:32:30</t>
+  </si>
+  <si>
+    <t>2025-11-17 17:02:51</t>
+  </si>
+  <si>
+    <t>2025-11-20 13:44:14</t>
+  </si>
+  <si>
+    <t>2025-11-20 18:07:30</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-22 10:37:34</t>
+  </si>
+  <si>
+    <t>2025-11-22 18:30:08</t>
+  </si>
+  <si>
+    <t>2025-11-23 15:57:30</t>
+  </si>
+  <si>
+    <t>2025-11-23 20:09:24</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-24 10:37:38</t>
+  </si>
+  <si>
+    <t>2025-11-24 17:06:48</t>
+  </si>
+  <si>
+    <t>2025-11-25 10:55:41</t>
+  </si>
+  <si>
+    <t>2025-11-25 17:03:17</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-26 10:43:04</t>
+  </si>
+  <si>
+    <t>2025-11-26 17:44:52</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-27 10:38:03</t>
+  </si>
+  <si>
+    <t>2025-11-27 18:14:13</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-29 10:46:09</t>
+  </si>
+  <si>
+    <t>2025-11-29 17:09:21</t>
   </si>
 </sst>
 </file>
@@ -628,7 +625,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D1" sqref="D1"/>
@@ -687,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="1">
-        <v>322</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -701,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>126</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -715,7 +712,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1">
-        <v>544</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -729,7 +726,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="1">
-        <v>249</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -743,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="1">
-        <v>250</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -757,7 +754,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="1">
-        <v>547</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -771,7 +768,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="1">
-        <v>552</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -785,7 +782,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="1">
-        <v>579</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -799,7 +796,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="1">
-        <v>547</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -813,7 +810,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="1">
-        <v>250</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -827,7 +824,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="1">
-        <v>574</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -841,43 +838,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="1">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="1">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="1">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +853,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D1" sqref="D1"/>
@@ -911,13 +872,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -942,198 +903,226 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1">
-        <v>581</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1">
-        <v>539</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1">
-        <v>525</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1">
-        <v>526</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
-        <v>570</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1">
-        <v>539</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1">
-        <v>515</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1">
-        <v>513</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1">
-        <v>497</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1">
-        <v>558</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1">
-        <v>570</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1">
-        <v>514</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1">
-        <v>510</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="1">
-        <v>531</v>
+      <c r="D18" s="1">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
